--- a/src/designFile/LL(1)分析表 (1).xlsx
+++ b/src/designFile/LL(1)分析表 (1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>标识符</t>
   </si>
@@ -83,6 +83,49 @@
   </si>
   <si>
     <t>program</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>;</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\+</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\*</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>\/</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术表达式</t>
+  </si>
+  <si>
+    <t>算术表达式X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术表达式T</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术表达式Y</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术表达式F</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>终结符I</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +166,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9.5"/>
+      <color rgb="FF4D4D4D"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,7 +196,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -161,6 +211,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -482,9 +535,15 @@
     <col min="11" max="11" width="4.05078125" customWidth="1"/>
     <col min="12" max="12" width="5.20703125" customWidth="1"/>
     <col min="13" max="13" width="8.47265625" customWidth="1"/>
+    <col min="14" max="14" width="5.05078125" customWidth="1"/>
+    <col min="15" max="15" width="4.3671875" customWidth="1"/>
+    <col min="16" max="16" width="4.1015625" customWidth="1"/>
+    <col min="17" max="17" width="4.734375" customWidth="1"/>
+    <col min="18" max="18" width="5.05078125" customWidth="1"/>
+    <col min="19" max="19" width="4.83984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,8 +583,23 @@
       <c r="N1" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -533,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:19">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -553,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:19">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -573,7 +647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -587,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:19">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -601,7 +675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:19">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -612,7 +686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:19">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -620,7 +694,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:19">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -628,24 +702,117 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:19">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>19</v>
+      </c>
+      <c r="S12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="H13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14">
+        <v>24</v>
+      </c>
+      <c r="O14">
+        <v>24</v>
+      </c>
+      <c r="P14">
+        <v>24</v>
+      </c>
+      <c r="Q14">
+        <v>22</v>
+      </c>
+      <c r="R14">
+        <v>23</v>
+      </c>
+      <c r="S14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15">
+        <v>25</v>
+      </c>
+      <c r="H15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/designFile/LL(1)分析表 (1).xlsx
+++ b/src/designFile/LL(1)分析表 (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="11520" windowHeight="9155" tabRatio="350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>标识符</t>
   </si>
@@ -36,6 +36,9 @@
     <t>float</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>（</t>
   </si>
   <si>
@@ -72,6 +75,36 @@
     <t>;</t>
   </si>
   <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>\==</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;=</t>
+  </si>
+  <si>
+    <t>!=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>\true</t>
+  </si>
+  <si>
+    <t>\false</t>
+  </si>
+  <si>
     <t>程序</t>
   </si>
   <si>
@@ -93,10 +126,22 @@
     <t>语句</t>
   </si>
   <si>
-    <t>赋值表达式</t>
+    <t>赋值语句</t>
   </si>
   <si>
     <t>基本表达式</t>
+  </si>
+  <si>
+    <t>if_else语句</t>
+  </si>
+  <si>
+    <t>比较表达式</t>
+  </si>
+  <si>
+    <t>比较项</t>
+  </si>
+  <si>
+    <t>比较符号</t>
   </si>
   <si>
     <t>算术表达式</t>
@@ -122,12 +167,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,17 +193,70 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF4D4D4D"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -176,6 +274,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -184,97 +329,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -282,28 +336,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -314,49 +346,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -368,25 +472,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,25 +490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,73 +520,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -511,8 +543,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +620,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -542,69 +637,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,10 +645,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,137 +657,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,12 +795,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1120,16 +1146,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:AD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AC18" sqref="AC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="20.1574074074074" customWidth="1"/>
-    <col min="2" max="2" width="7.10185185185185" customWidth="1"/>
+    <col min="2" max="2" width="5.77777777777778" customWidth="1"/>
     <col min="3" max="3" width="5.68518518518519" customWidth="1"/>
     <col min="4" max="4" width="5.62962962962963" customWidth="1"/>
     <col min="5" max="5" width="5.78703703703704" customWidth="1"/>
@@ -1139,17 +1165,23 @@
     <col min="9" max="9" width="3.62962962962963" customWidth="1"/>
     <col min="10" max="10" width="3.52777777777778" customWidth="1"/>
     <col min="11" max="11" width="4.0462962962963" customWidth="1"/>
-    <col min="12" max="12" width="5.2037037037037" customWidth="1"/>
-    <col min="13" max="13" width="8.47222222222222" customWidth="1"/>
-    <col min="14" max="14" width="5.0462962962963" customWidth="1"/>
+    <col min="12" max="12" width="2.77777777777778" customWidth="1"/>
+    <col min="13" max="13" width="3.66666666666667" customWidth="1"/>
+    <col min="14" max="14" width="8.11111111111111" customWidth="1"/>
     <col min="15" max="15" width="4.37037037037037" customWidth="1"/>
-    <col min="16" max="16" width="4.10185185185185" customWidth="1"/>
-    <col min="17" max="17" width="4.73148148148148" customWidth="1"/>
-    <col min="18" max="18" width="5.0462962962963" customWidth="1"/>
-    <col min="19" max="19" width="4.84259259259259" customWidth="1"/>
+    <col min="16" max="17" width="3.22222222222222" customWidth="1"/>
+    <col min="18" max="19" width="3" customWidth="1"/>
+    <col min="20" max="20" width="3.55555555555556" customWidth="1"/>
+    <col min="21" max="21" width="3.77777777777778" customWidth="1"/>
+    <col min="22" max="22" width="4.77777777777778" customWidth="1"/>
+    <col min="23" max="23" width="3.44444444444444" customWidth="1"/>
+    <col min="24" max="24" width="3.88888888888889" customWidth="1"/>
+    <col min="25" max="28" width="3.22222222222222" customWidth="1"/>
+    <col min="29" max="29" width="6.33333333333333" customWidth="1"/>
+    <col min="30" max="30" width="6.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19">
+    <row r="1" spans="2:30">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,10 +1218,10 @@
       <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="P1" s="2" t="s">
@@ -1204,18 +1236,51 @@
       <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="M2">
+      <c r="U1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1229,13 +1294,19 @@
       <c r="G3">
         <v>2</v>
       </c>
-      <c r="K3">
+      <c r="H3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3">
+        <v>2</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1249,13 +1320,19 @@
       <c r="G4">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="L4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -1266,10 +1343,13 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1280,37 +1360,46 @@
       <c r="G6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="H6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="U7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>11</v>
       </c>
+      <c r="U8">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:30">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>16</v>
@@ -1321,97 +1410,204 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11">
+      <c r="AC10">
+        <v>39</v>
+      </c>
+      <c r="AD10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="I12">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>32</v>
+      </c>
+      <c r="I13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="W14">
+        <v>33</v>
+      </c>
+      <c r="X14">
+        <v>34</v>
+      </c>
+      <c r="Y14">
+        <v>35</v>
+      </c>
+      <c r="Z14">
+        <v>36</v>
+      </c>
+      <c r="AA14">
+        <v>37</v>
+      </c>
+      <c r="AB14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C15">
         <v>17</v>
       </c>
-      <c r="H11">
+      <c r="I15">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12">
+    <row r="16" spans="1:28">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16">
         <v>20</v>
       </c>
-      <c r="O12">
+      <c r="P16">
         <v>18</v>
       </c>
-      <c r="P12">
+      <c r="Q16">
         <v>19</v>
       </c>
-      <c r="S12">
+      <c r="T16">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13">
+      <c r="W16">
+        <v>20</v>
+      </c>
+      <c r="X16">
+        <v>20</v>
+      </c>
+      <c r="Y16">
+        <v>20</v>
+      </c>
+      <c r="Z16">
+        <v>20</v>
+      </c>
+      <c r="AA16">
+        <v>20</v>
+      </c>
+      <c r="AB16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
         <v>21</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <v>21</v>
       </c>
-      <c r="H13">
+      <c r="I17">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I14">
+    <row r="18" spans="1:28">
+      <c r="A18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18">
         <v>24</v>
       </c>
-      <c r="O14">
+      <c r="P18">
         <v>24</v>
       </c>
-      <c r="P14">
+      <c r="Q18">
         <v>24</v>
       </c>
-      <c r="Q14">
+      <c r="R18">
         <v>22</v>
       </c>
-      <c r="R14">
+      <c r="S18">
         <v>23</v>
       </c>
-      <c r="S14">
+      <c r="T18">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15">
+      <c r="W18">
+        <v>20</v>
+      </c>
+      <c r="X18">
+        <v>20</v>
+      </c>
+      <c r="Y18">
+        <v>20</v>
+      </c>
+      <c r="Z18">
+        <v>20</v>
+      </c>
+      <c r="AA18">
+        <v>20</v>
+      </c>
+      <c r="AB18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
         <v>25</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <v>25</v>
       </c>
-      <c r="H15">
+      <c r="I19">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16">
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
         <v>13</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <v>14</v>
       </c>
     </row>
